--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251002_170450.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251002_170450.xlsx
@@ -5157,7 +5157,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
